--- a/biology/Médecine/Thalassémie_alpha/Thalassémie_alpha.xlsx
+++ b/biology/Médecine/Thalassémie_alpha/Thalassémie_alpha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Thalass%C3%A9mie_alpha</t>
+          <t>Thalassémie_alpha</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La thalassémie alpha est une maladie génétique en rapport avec une anomalie de la synthèse de la chaîne alpha de l'hémoglobine, se traduisant par une anémie plus ou moins prononcée. Il s'agit de l'une des deux formes de thalassémies, l'autre étant la thalassémie bêta. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Thalass%C3%A9mie_alpha</t>
+          <t>Thalassémie_alpha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hémoglobine normale est constituée de quatre sous unités : deux chaînes alpha et deux chaînes bêta.
 La chaîne alpha est sous le contrôle de quatre allèles. On distingue, suivant le nombre d'allèles atteint :
@@ -520,8 +534,8 @@
 l'hémoglobine H lorsque les trois des quatre allèles de l'hémoglobine alpha sont absents ou inactifs,
 le trait thalassémique alpha lorsque deux allèles sont mutés
 la thalassémie alpha plus pour un seul allèle muté.
-Le gène thalassémique comporte le plus souvent une délétion (génétique)[1].
-La concordance des zones endémiques pour le paludisme  et de celles ayant une proportion élevée de thalassémie alpha fait évoquer l'hypothèse que cette dernière pourrait avoir un rôle protecteur contre le plasmodium[2].
+Le gène thalassémique comporte le plus souvent une délétion (génétique).
+La concordance des zones endémiques pour le paludisme  et de celles ayant une proportion élevée de thalassémie alpha fait évoquer l'hypothèse que cette dernière pourrait avoir un rôle protecteur contre le plasmodium.
 </t>
         </is>
       </c>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Thalass%C3%A9mie_alpha</t>
+          <t>Thalassémie_alpha</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,9 +564,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est essentiellement présente chez les populations issues des régions tropicales et la prévalence mondiale du portage d'un allèle muté atteint 5 %[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est essentiellement présente chez les populations issues des régions tropicales et la prévalence mondiale du portage d'un allèle muté atteint 5 %.
 </t>
         </is>
       </c>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Thalass%C3%A9mie_alpha</t>
+          <t>Thalassémie_alpha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Forme clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La forme fœtale est la manifestation la plus sévère avec l'apparition précoce d'un anasarque : ascite, épanchement péricardique, épanchement pleural, œdème généralisé, anémie microcytaire et hydramnios. Le nouveau-né présente une splénomégalie avec hépatomégalie, une érythropoïèse extra-médullaire, une hydrocéphalie, des malformations cardiaques et uro-génitales. Le décès survient rapidement. Cette forme est due à la présence de l'hémoglobine Bart.
 La forme classique par hémoglobine H est une anémie hémolytique microcytaire avec ictère, hépatomégalie, splénomégalie et quelques fois des anomalies osseuses de la thalassémie bêta.
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Thalass%C3%A9mie_alpha</t>
+          <t>Thalassémie_alpha</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +634,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Aucun traitement n'est disponible en cas d'anasarque fœtal.
 Les porteurs de l'hémoglobine H pourront bénéficier de transfusion de culot globulaire en cas d'anémie sévère avec retentissement viscéral. Une splénectomie sera parfois nécessaire. Les traitements à base de fer et certains antipaludéens seront à éviter chez ces individus.
